--- a/metrics/R2/average & upto/Amputación extremidades inferiores.xlsx
+++ b/metrics/R2/average & upto/Amputación extremidades inferiores.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5856316870431348</v>
+        <v>0.5396704975028879</v>
       </c>
       <c r="C2" t="n">
-        <v>0.585631687043135</v>
+        <v>0.5396704975028879</v>
       </c>
       <c r="D2" t="n">
-        <v>0.585631687043135</v>
+        <v>0.5396704975028879</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9923369802504293</v>
+        <v>0.876842542551157</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9923378295578815</v>
+        <v>0.8804196721155447</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9924503250745842</v>
+        <v>0.8700539834342859</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9917238627339953</v>
+        <v>0.7852333789298676</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9917254455779295</v>
+        <v>0.7850392263826256</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9917450133232174</v>
+        <v>0.7852435725387144</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9556299261833447</v>
+        <v>0.8228473513991292</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9593211320605163</v>
+        <v>0.8264227344971981</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9565351215910673</v>
+        <v>0.8094772162539391</v>
       </c>
     </row>
   </sheetData>
